--- a/Original/Files/慧与大数据/教研中心12月份绩效考核表（课程研发）-曹发.xlsx
+++ b/Original/Files/慧与大数据/教研中心12月份绩效考核表（课程研发）-曹发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="主管级以下考核表" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>慧与主管级及以下员工月度考核表</t>
   </si>
   <si>
-    <t>部门：教研中心         岗位：算法工程师          姓名： 曹发            月份：12                      部门负责人：  刘凤永</t>
+    <t>部门：教研中心         岗位：算法工程师          姓名： 曹发            月份：1                      部门负责人：  刘凤永</t>
   </si>
   <si>
     <t>序号</t>
@@ -66,7 +66,13 @@
     <t>每有一项未完成，酌情扣1~5分</t>
   </si>
   <si>
+    <t>1。完成课程结构设计；2.完成ppt制作；3.量化策略代码实现</t>
+  </si>
+  <si>
     <t>教研中心</t>
+  </si>
+  <si>
+    <t>扣分原因：PPT组织的系统性有欠缺</t>
   </si>
   <si>
     <t>《综合项目实训》</t>
@@ -76,6 +82,12 @@
 2.确定可行性算法（10分）</t>
   </si>
   <si>
+    <t>1。选定图像识别案例；2.选定具体算法</t>
+  </si>
+  <si>
+    <t>扣分原因：准备尚不够充分</t>
+  </si>
+  <si>
     <t>常规性工作</t>
   </si>
   <si>
@@ -83,6 +95,12 @@
   </si>
   <si>
     <t>1.协助其他同事完成相关性工作（10分）</t>
+  </si>
+  <si>
+    <t>1。接替崔老师完成numpy和pandas的教学</t>
+  </si>
+  <si>
+    <t>扣分原因：准备不够充分</t>
   </si>
   <si>
     <t>日常行为</t>
@@ -111,6 +129,9 @@
   </si>
   <si>
     <t>被考核人签字：曹发           日期：</t>
+  </si>
+  <si>
+    <t>2018.1.2</t>
   </si>
   <si>
     <t>分管领导签字：                       日期：</t>
@@ -140,8 +161,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -173,6 +194,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -180,8 +202,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -196,7 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,54 +283,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,32 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,24 +353,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,157 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +638,32 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,6 +683,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -646,21 +708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,21 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -706,27 +738,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,7 +1270,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1345,12 +1366,18 @@
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45</v>
+      </c>
       <c r="I4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" ht="67" customHeight="1" spans="1:10">
       <c r="A5" s="7">
@@ -1360,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
         <v>20</v>
@@ -1371,25 +1398,31 @@
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6">
+        <v>17</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="67" customHeight="1" spans="1:10">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
@@ -1397,31 +1430,37 @@
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
       <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" ht="47.55" customHeight="1" spans="1:10">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1430,10 +1469,10 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1446,16 +1485,16 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1464,16 +1503,18 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="F10" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="20"/>
@@ -1482,15 +1523,15 @@
     <row r="11" ht="30" customHeight="1" spans="1:10">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -1498,7 +1539,7 @@
     </row>
     <row r="12" ht="34.5" customHeight="1" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1512,7 +1553,7 @@
     </row>
     <row r="13" ht="19.05" customHeight="1" spans="1:10">
       <c r="A13" s="19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1526,7 +1567,7 @@
     </row>
     <row r="14" ht="16.05" customHeight="1" spans="1:10">
       <c r="A14" s="19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
